--- a/data/metadata/country_metadata_pivot.xlsx
+++ b/data/metadata/country_metadata_pivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samib\Documents\AI\tunisia-wdi-dashboard\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1DCCBC-D39A-46A8-88EF-9FE76AAC20E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782D996C-6749-4120-ABEC-917B9C9E705C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D7041D3-0BDB-402E-BB28-5E9BDC1373D8}"/>
+    <workbookView xWindow="2388" yWindow="2304" windowWidth="17232" windowHeight="8844" xr2:uid="{5D7041D3-0BDB-402E-BB28-5E9BDC1373D8}"/>
   </bookViews>
   <sheets>
     <sheet name="country_metadata_pivot" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>IncomeGroup</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>mountains in north; hot, dry central plain; semiarid south merges into the Sahara</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Unitary semi-presidential republic</t>
   </si>
 </sst>
 </file>
@@ -966,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F12687-CA58-4D23-9F0B-EBF3F020A3F9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,6 +1091,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
